--- a/biology/Médecine/Espace_virtuel/Espace_virtuel.xlsx
+++ b/biology/Médecine/Espace_virtuel/Espace_virtuel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, un espace virtuel désigne une cavité ou un espace entre des organes, normalement vide ou rempli à volume constant.
 L'espace virtuel peut être délimité par deux feuillets d'une membrane séreuse, comme dans le cas du péritoine ou de la plèvre ou par des organes comme dans le cas du médiastin.
